--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
@@ -6,10 +6,10 @@
   </bookViews>
   <sheets>
     <sheet name="Stacked area chart" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Stacked area chart'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -172,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="jpsplgpi" xfId="1"/>
-    <cellStyle name="jpsplgpi_Alternate" xfId="2"/>
-    <cellStyle name="rbei2dg4" xfId="3"/>
-    <cellStyle name="rbei2dg4_Alternate" xfId="4"/>
-    <cellStyle name="3o2flkzq" xfId="5"/>
-    <cellStyle name="3o2flkzq_Alternate" xfId="6"/>
-    <cellStyle name="xtezmqfp" xfId="7"/>
-    <cellStyle name="xtezmqfp_Alternate" xfId="8"/>
-    <cellStyle name="jdzqtpux" xfId="9"/>
-    <cellStyle name="jdzqtpux_Alternate" xfId="10"/>
+    <cellStyle name="zyrdwhbn" xfId="1"/>
+    <cellStyle name="zyrdwhbn_Alternate" xfId="2"/>
+    <cellStyle name="tho0eyd2" xfId="3"/>
+    <cellStyle name="tho0eyd2_Alternate" xfId="4"/>
+    <cellStyle name="1yvsiab0" xfId="5"/>
+    <cellStyle name="1yvsiab0_Alternate" xfId="6"/>
+    <cellStyle name="xas11xwb" xfId="7"/>
+    <cellStyle name="xas11xwb_Alternate" xfId="8"/>
+    <cellStyle name="ruhyttx1" xfId="9"/>
+    <cellStyle name="ruhyttx1_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -517,6 +517,15 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="13.0157470703125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="11.045602321624756" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="17.820341110229492" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="17.810111045837402" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="12.694784164428711" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
@@ -842,18 +851,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
@@ -172,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="zyrdwhbn" xfId="1"/>
-    <cellStyle name="zyrdwhbn_Alternate" xfId="2"/>
-    <cellStyle name="tho0eyd2" xfId="3"/>
-    <cellStyle name="tho0eyd2_Alternate" xfId="4"/>
-    <cellStyle name="1yvsiab0" xfId="5"/>
-    <cellStyle name="1yvsiab0_Alternate" xfId="6"/>
-    <cellStyle name="xas11xwb" xfId="7"/>
-    <cellStyle name="xas11xwb_Alternate" xfId="8"/>
-    <cellStyle name="ruhyttx1" xfId="9"/>
-    <cellStyle name="ruhyttx1_Alternate" xfId="10"/>
+    <cellStyle name="ghlxz1b3" xfId="1"/>
+    <cellStyle name="ghlxz1b3_Alternate" xfId="2"/>
+    <cellStyle name="hw3k0qhy" xfId="3"/>
+    <cellStyle name="hw3k0qhy_Alternate" xfId="4"/>
+    <cellStyle name="f3l4f2h5" xfId="5"/>
+    <cellStyle name="f3l4f2h5_Alternate" xfId="6"/>
+    <cellStyle name="hedj4ict" xfId="7"/>
+    <cellStyle name="hedj4ict_Alternate" xfId="8"/>
+    <cellStyle name="4p23cn5o" xfId="9"/>
+    <cellStyle name="4p23cn5o_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -479,13 +479,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-25/Sample-25.xlsx
@@ -172,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ghlxz1b3" xfId="1"/>
-    <cellStyle name="ghlxz1b3_Alternate" xfId="2"/>
-    <cellStyle name="hw3k0qhy" xfId="3"/>
-    <cellStyle name="hw3k0qhy_Alternate" xfId="4"/>
-    <cellStyle name="f3l4f2h5" xfId="5"/>
-    <cellStyle name="f3l4f2h5_Alternate" xfId="6"/>
-    <cellStyle name="hedj4ict" xfId="7"/>
-    <cellStyle name="hedj4ict_Alternate" xfId="8"/>
-    <cellStyle name="4p23cn5o" xfId="9"/>
-    <cellStyle name="4p23cn5o_Alternate" xfId="10"/>
+    <cellStyle name="dawgru0q" xfId="1"/>
+    <cellStyle name="dawgru0q_Alternate" xfId="2"/>
+    <cellStyle name="otpyzuld" xfId="3"/>
+    <cellStyle name="otpyzuld_Alternate" xfId="4"/>
+    <cellStyle name="23qvsjrm" xfId="5"/>
+    <cellStyle name="23qvsjrm_Alternate" xfId="6"/>
+    <cellStyle name="slfkaslw" xfId="7"/>
+    <cellStyle name="slfkaslw_Alternate" xfId="8"/>
+    <cellStyle name="czpanrhk" xfId="9"/>
+    <cellStyle name="czpanrhk_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
